--- a/biology/Médecine/Métiers_du_paramédical_en_France/Métiers_du_paramédical_en_France.xlsx
+++ b/biology/Médecine/Métiers_du_paramédical_en_France/Métiers_du_paramédical_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
+          <t>Métiers_du_paramédical_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métiers du paramédical couvrent un ensemble de métiers qui n'est pas défini officiellement en France, mais regroupe les métiers qui ne relèvent ni de la médecine, ni de la maïeutique, ni de la pharmacie, ni de l'odontologie.
 Le Code de la santé publique français définit les professions de la santé qui ne sont pas exercées par un médecin, un sage-femme un dentiste ou un pharmacien.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
+          <t>Métiers_du_paramédical_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,85 @@
           <t>Professions de santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parmi les professions de la santé relevant du terme "paramédical", on peut distinguer trois grands groupes, définis dans la partie réglementaire du Code de la santé publique : les préparateurs en pharmacie (Livre II, Titre IV), le corps des auxiliaires médicaux (Livre III, Titres I, II, III, IV, V, VI et VII) et le corps des professions relevant du statut d'aide-soignant (Livre III, Titre IX).
-Le préparateur en pharmacie
-Le préparateur en pharmacie d'officine. Dispensation des médicaments, approvisionnements (livraisons, réceptions), préparations magistrales.
-Le préparateur en pharmacie hospitalière : dispensation des médicaments aux services cliniques et rétrocession au public, approvisionnements, pharmacotechnie, contrôles, conduites des opérations de stérilisation, préparations magistrales et hospitalières, reconstitution des cytotoxiques.
-Corps des auxiliaires médicaux
-L'infirmier ou l'infirmière : pratique les soins infirmiers
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les professions de la santé relevant du terme "paramédical", on peut distinguer trois grands groupes, définis dans la partie réglementaire du Code de la santé publique : les préparateurs en pharmacie (Livre II, Titre IV), le corps des auxiliaires médicaux (Livre III, Titres I, II, III, IV, V, VI et VII) et le corps des professions relevant du statut d'aide-soignant (Livre III, Titre IX).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Métiers_du_paramédical_en_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Professions de santé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le préparateur en pharmacie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le préparateur en pharmacie d'officine. Dispensation des médicaments, approvisionnements (livraisons, réceptions), préparations magistrales.
+Le préparateur en pharmacie hospitalière : dispensation des médicaments aux services cliniques et rétrocession au public, approvisionnements, pharmacotechnie, contrôles, conduites des opérations de stérilisation, préparations magistrales et hospitalières, reconstitution des cytotoxiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Métiers_du_paramédical_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Professions de santé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Corps des auxiliaires médicaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'infirmier ou l'infirmière : pratique les soins infirmiers
 L'infirmier de bloc opératoire (France), l'infirmier anesthésiste (France) et l'Infirmier en puériculture, infirmier aide-anesthésiste, qui sont des infirmiers spécialisés ayant suivi une formation diplômante supplémentaire. les cadres de santé infirmiers (« surveillants »),
 L'infirmier militaire, scolaire, du travail, sapeur-pompier
 Le masseur-kinésithérapeute (aussi appelé physiothérapeute) : traitement par mobilisations, physiothérapie, gymnastique médicale, soins cardio-respiratoires (drainage bronchique, ventilation mécanique, aérosolthérapie), massages, rééducation et réhabilitation.
@@ -537,39 +620,75 @@
 L'orthésiste et prothésiste : Il réalise sur mesure des appareillages externes à but thérapeutiques
  L'oculariste : il réalise des prothèses oculaires
 le podo-orthésiste réalise des chaussures orthopédiques sur moulages, orthèses plantaires, et tout appareillage sur mesures ou de série du pied et de la cheville. Il réalise sur mesure des appareillages externes à but thérapeutiques
-Le diététicien : prise en charge de l'alimentation
-Corps des professions de statut d'aide-soignant
-L'aide-soignant (ou préposé aux bénéficiaires, au Québec)
+Le diététicien : prise en charge de l'alimentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Métiers_du_paramédical_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Professions de santé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Corps des professions de statut d'aide-soignant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'aide-soignant (ou préposé aux bénéficiaires, au Québec)
 L'auxiliaire de puériculture
 L'ambulancier : le transport de blessés, malades, parturientes (femmes enceintes) à des fins de soins ou de diagnostic, sur prescription médicale ou en cas d'urgence médicale</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Métiers_du_paramédical_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9tiers_du_param%C3%A9dical_en_France</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Autres professions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bien que non-professionnels de santé au sens du code de la santé publique d'autres professions sont communément incluses dans le terme « paramédical » :
 L'aide médico-psychologique
